--- a/Documentations/Cahiers_des_charges/Suivi de projet.xlsx
+++ b/Documentations/Cahiers_des_charges/Suivi de projet.xlsx
@@ -15,6 +15,7 @@
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Décompte heures'!$B$2:$H$53</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Décompte heures'!$B$2:$H$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0" vbProcedure="false">'Décompte heures'!$B$2:$H$53</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -143,7 +144,7 @@
     <t>Conception scénario de tests</t>
   </si>
   <si>
-    <t>Implémentation </t>
+    <t>Implémentation</t>
   </si>
   <si>
     <t>Implémentation du système (taches)</t>
@@ -1674,15 +1675,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>92160</xdr:colOff>
+      <xdr:colOff>119160</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2150640</xdr:colOff>
+      <xdr:colOff>2177280</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>528480</xdr:rowOff>
+      <xdr:rowOff>519120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1697,8 +1698,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="353520" y="271440"/>
-          <a:ext cx="2532240" cy="418680"/>
+          <a:off x="380520" y="262440"/>
+          <a:ext cx="2531880" cy="418320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1710,162 +1711,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>293760</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>217080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10061280" cy="9622440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>293760</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>217080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10061280" cy="9622440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>293760</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>217080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10061280" cy="9622440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>293760</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>217080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10061280" cy="9622440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1874,19 +1719,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>90360</xdr:colOff>
+      <xdr:colOff>117360</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2201760</xdr:colOff>
+      <xdr:colOff>2228400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>513000</xdr:rowOff>
+      <xdr:rowOff>503640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="" id="5" name="Image 2"/>
+        <xdr:cNvPr descr="" id="1" name="Image 2"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1897,8 +1742,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="422280" y="256680"/>
-          <a:ext cx="2535120" cy="417960"/>
+          <a:off x="449280" y="247680"/>
+          <a:ext cx="2534760" cy="417600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1921,11 +1766,11 @@
   <dimension ref="A1:BJ77"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="I54" xSplit="8" ySplit="11"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="I12" xSplit="8" ySplit="11"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
       <selection activeCell="I1" activeCellId="0" pane="topRight" sqref="I1"/>
-      <selection activeCell="A54" activeCellId="0" pane="bottomLeft" sqref="A54"/>
-      <selection activeCell="N63" activeCellId="0" pane="bottomRight" sqref="N63"/>
+      <selection activeCell="A12" activeCellId="0" pane="bottomLeft" sqref="A12"/>
+      <selection activeCell="Q22" activeCellId="0" pane="bottomRight" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8067,7 +7912,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="39">
       <c r="B39" s="101" t="str">
         <f aca="false">Planification!C40</f>
-        <v>Implémentation </v>
+        <v>Implémentation</v>
       </c>
       <c r="C39" s="91"/>
       <c r="D39" s="91"/>
@@ -8080,7 +7925,7 @@
       <c r="I39" s="96"/>
       <c r="J39" s="103" t="str">
         <f aca="false">B39</f>
-        <v>Implémentation </v>
+        <v>Implémentation</v>
       </c>
       <c r="K39" s="104" t="n">
         <v>10</v>
